--- a/Templates/metabolic rate/30_template_metabolic_rate.xlsx
+++ b/Templates/metabolic rate/30_template_metabolic_rate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\metabolic rate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\metabolic rate\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEB7F9E-1B21-4D00-B0D0-201DA31FEB38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE24894-5D87-4424-A150-C52A49E68560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{BFF950A0-F4A1-4AB4-B96B-1421EDA891B8}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="6" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="136">
   <si>
     <t>Column_name</t>
   </si>
@@ -434,6 +434,9 @@
   </si>
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
+  </si>
+  <si>
+    <t>date_of_collection_final</t>
   </si>
 </sst>
 </file>
@@ -941,11 +944,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61B6C100-C1FE-4195-9DE5-AB54BF1473C8}">
   <dimension ref="A1:AX1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="15" ySplit="19" topLeftCell="P20" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="P1" sqref="P1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1003,7 +1006,7 @@
         <v>75</v>
       </c>
       <c r="R1" s="29" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="S1" s="29" t="s">
         <v>26</v>
@@ -1111,9 +1114,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99DC1DE2-1697-41FF-BBB2-1481FE9D25B2}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B51" sqref="B2:B51"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>94</v>
